--- a/TestSeleniumMode/Excel/SeleniumTest.xlsx
+++ b/TestSeleniumMode/Excel/SeleniumTest.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="1.0.1.36092"/>
+  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="1.0.1.36093"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="170" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
   <si>
     <t>行号</t>
   </si>
@@ -622,6 +622,12 @@
   </si>
   <si>
     <t>该结婚</t>
+  </si>
+  <si>
+    <t>movePhoto</t>
+  </si>
+  <si>
+    <t>滑动验证码</t>
   </si>
 </sst>
 </file>
@@ -1631,7 +1637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -1912,8 +1918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.500000"/>
@@ -2031,8 +2037,12 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
+      <c r="A15" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="15" t="s">
